--- a/Battelle.EPA.WideAreaDecon.API.Tests/InputFiles/ParameterTests/ModifyParameterTestFile.xlsx
+++ b/Battelle.EPA.WideAreaDecon.API.Tests/InputFiles/ParameterTests/ModifyParameterTestFile.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PERAZA\Documents\Tasking\(4) EPA Stuff\Task 5 Repo\WideAreaDecon\Battelle.EPA.WideAreaDecon.API.Tests\InputFiles\ParameterTests\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="R:\EPA\WideAreaDecon\Battelle.EPA.WideAreaDecon.API.Tests\InputFiles\ParameterTests\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4B571CB-8D13-4235-BAED-2119EE93EFCC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA888237-38F4-4C2C-B3CD-381888157AC9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{E5343083-81AA-42AD-9887-0542707DB5A1}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{E5343083-81AA-42AD-9887-0542707DB5A1}"/>
   </bookViews>
   <sheets>
     <sheet name="Internal - File Info" sheetId="1" r:id="rId1"/>
@@ -35,17 +35,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="34">
   <si>
     <t>SCWAD</t>
   </si>
   <si>
-    <t>Internal</t>
-  </si>
-  <si>
-    <t>Category</t>
-  </si>
-  <si>
     <t>Name</t>
   </si>
   <si>
@@ -58,18 +52,6 @@
     <t>Distribution Type</t>
   </si>
   <si>
-    <t>Minimum</t>
-  </si>
-  <si>
-    <t>Maximum</t>
-  </si>
-  <si>
-    <t>Mean/Mode</t>
-  </si>
-  <si>
-    <t>Standard Deviation</t>
-  </si>
-  <si>
     <t>Personnel</t>
   </si>
   <si>
@@ -119,6 +101,42 @@
   </si>
   <si>
     <t>Uniform</t>
+  </si>
+  <si>
+    <t>Note</t>
+  </si>
+  <si>
+    <t>Parameter 1</t>
+  </si>
+  <si>
+    <t>Parameter 2</t>
+  </si>
+  <si>
+    <t>Parameter 3</t>
+  </si>
+  <si>
+    <t>Parameter 4</t>
+  </si>
+  <si>
+    <t>Parameter 5</t>
+  </si>
+  <si>
+    <t>Parameter 6</t>
+  </si>
+  <si>
+    <t>Parameter 7</t>
+  </si>
+  <si>
+    <t>Lower Limit</t>
+  </si>
+  <si>
+    <t>Upper Limit</t>
+  </si>
+  <si>
+    <t>Step</t>
+  </si>
+  <si>
+    <t>Phase</t>
   </si>
 </sst>
 </file>
@@ -142,7 +160,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -196,21 +214,295 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="18">
+  <dxfs count="24">
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
     <dxf>
       <border>
         <left style="thin">
@@ -425,116 +717,6 @@
           <bgColor theme="5" tint="0.59996337778862885"/>
         </patternFill>
       </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="medium">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left/>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left/>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-        <top style="medium">
-          <color indexed="64"/>
-        </top>
-        <bottom style="medium">
-          <color indexed="64"/>
-        </bottom>
-      </border>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -550,38 +732,50 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{450181E0-7043-4475-AE53-58C7222D6F4A}" name="Table156" displayName="Table156" ref="A1:J3" totalsRowShown="0" tableBorderDxfId="17">
-  <autoFilter ref="A1:J3" xr:uid="{F33B2A34-2502-4FEA-B76E-2C2602FE7430}"/>
-  <tableColumns count="10">
-    <tableColumn id="9" xr3:uid="{DC9FCB7E-F210-47E7-9E5F-C1D634D58908}" name="Internal" dataDxfId="16"/>
-    <tableColumn id="1" xr3:uid="{CD9C5901-C8AC-4199-813E-3ABB72DEABB8}" name="Category" dataDxfId="15"/>
-    <tableColumn id="2" xr3:uid="{96CABB6D-3318-420E-A8F0-15649CD961FC}" name="Name" dataDxfId="14"/>
-    <tableColumn id="10" xr3:uid="{8386003C-08C5-4C78-8A15-C3D9F4B923D2}" name="Description" dataDxfId="13"/>
-    <tableColumn id="3" xr3:uid="{B8249746-D330-40AD-9B84-125AE203A379}" name="Units" dataDxfId="12"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{450181E0-7043-4475-AE53-58C7222D6F4A}" name="Table156" displayName="Table156" ref="A1:P3" totalsRowShown="0" tableBorderDxfId="11">
+  <autoFilter ref="A1:P3" xr:uid="{F33B2A34-2502-4FEA-B76E-2C2602FE7430}"/>
+  <tableColumns count="16">
+    <tableColumn id="9" xr3:uid="{DC9FCB7E-F210-47E7-9E5F-C1D634D58908}" name="Phase" dataDxfId="10"/>
+    <tableColumn id="1" xr3:uid="{CD9C5901-C8AC-4199-813E-3ABB72DEABB8}" name="Name" dataDxfId="9"/>
+    <tableColumn id="2" xr3:uid="{96CABB6D-3318-420E-A8F0-15649CD961FC}" name="Description" dataDxfId="8"/>
+    <tableColumn id="10" xr3:uid="{8386003C-08C5-4C78-8A15-C3D9F4B923D2}" name="Units" dataDxfId="7"/>
+    <tableColumn id="3" xr3:uid="{B8249746-D330-40AD-9B84-125AE203A379}" name="Note" dataDxfId="6"/>
     <tableColumn id="4" xr3:uid="{5B5D3A59-4078-4D8A-AA13-EBAA4854EF16}" name="Distribution Type"/>
-    <tableColumn id="5" xr3:uid="{CCAFA7EF-5661-41A6-AD26-E24B67B875DD}" name="Minimum"/>
-    <tableColumn id="6" xr3:uid="{6C3A492C-4D8D-4CD4-BFB2-8C134D453ABD}" name="Maximum"/>
-    <tableColumn id="7" xr3:uid="{0DE72F1B-B33C-46F4-B703-7038E1F67517}" name="Mean/Mode"/>
-    <tableColumn id="8" xr3:uid="{E1BEFA29-96CC-4FB6-886A-D168B030B174}" name="Standard Deviation"/>
+    <tableColumn id="5" xr3:uid="{CCAFA7EF-5661-41A6-AD26-E24B67B875DD}" name="Parameter 1"/>
+    <tableColumn id="6" xr3:uid="{6C3A492C-4D8D-4CD4-BFB2-8C134D453ABD}" name="Parameter 2"/>
+    <tableColumn id="7" xr3:uid="{0DE72F1B-B33C-46F4-B703-7038E1F67517}" name="Parameter 3"/>
+    <tableColumn id="8" xr3:uid="{E1BEFA29-96CC-4FB6-886A-D168B030B174}" name="Parameter 4"/>
+    <tableColumn id="11" xr3:uid="{C6AA3DE0-5C9F-4C45-93B2-01378C9C5271}" name="Parameter 5"/>
+    <tableColumn id="12" xr3:uid="{2062DDBE-9DAC-4404-B708-F35EEBD0DEA3}" name="Parameter 6"/>
+    <tableColumn id="13" xr3:uid="{0BEFF0CE-8728-4C7F-ABF4-5D80D1328237}" name="Parameter 7"/>
+    <tableColumn id="14" xr3:uid="{5443DF83-BFE6-4CDB-B76A-080E7E86F87A}" name="Lower Limit"/>
+    <tableColumn id="15" xr3:uid="{DB7C8AAB-2F7F-4970-8EFF-061C1AD2A32E}" name="Upper Limit"/>
+    <tableColumn id="16" xr3:uid="{3716D12C-C56F-4C1A-A450-FA590105D461}" name="Step"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{F657A306-AB73-4D98-94DC-F7C9FC951AF8}" name="Table15" displayName="Table15" ref="A1:J4" totalsRowShown="0" tableBorderDxfId="10">
-  <autoFilter ref="A1:J4" xr:uid="{02678076-9711-429F-9497-213053CF842B}"/>
-  <tableColumns count="10">
-    <tableColumn id="9" xr3:uid="{06BC819A-4F83-4DCD-9D15-EBA3AB0ECC6C}" name="Internal" dataDxfId="9"/>
-    <tableColumn id="1" xr3:uid="{D9CEC179-1576-42C3-96B2-3A2A2DEA940B}" name="Category" dataDxfId="8"/>
-    <tableColumn id="2" xr3:uid="{6D82DB69-9CAD-4C60-B89C-F0CE46353F34}" name="Name" dataDxfId="7"/>
-    <tableColumn id="10" xr3:uid="{868DB6BA-88A9-4C02-A656-6749D2C76F39}" name="Description" dataDxfId="6"/>
-    <tableColumn id="3" xr3:uid="{174820D0-DA16-466D-8D6A-4D5785531BCA}" name="Units" dataDxfId="5"/>
-    <tableColumn id="4" xr3:uid="{296D87C8-38DB-481E-8C8D-103E150C0EB4}" name="Distribution Type" dataDxfId="4"/>
-    <tableColumn id="5" xr3:uid="{0CD24369-4B74-4344-AEAA-FD06FF238D87}" name="Minimum" dataDxfId="3"/>
-    <tableColumn id="6" xr3:uid="{910E9AB0-6EC0-4356-8710-E6A61FF20CF2}" name="Maximum" dataDxfId="2"/>
-    <tableColumn id="7" xr3:uid="{939AF182-3E65-4378-98FE-E064D3AF07A4}" name="Mean/Mode" dataDxfId="1"/>
-    <tableColumn id="8" xr3:uid="{9A746F57-B265-44DF-8219-7FB48AB6F602}" name="Standard Deviation" dataDxfId="0"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{F657A306-AB73-4D98-94DC-F7C9FC951AF8}" name="Table15" displayName="Table15" ref="A1:P4" totalsRowShown="0" tableBorderDxfId="22">
+  <autoFilter ref="A1:P4" xr:uid="{02678076-9711-429F-9497-213053CF842B}"/>
+  <tableColumns count="16">
+    <tableColumn id="9" xr3:uid="{06BC819A-4F83-4DCD-9D15-EBA3AB0ECC6C}" name="Phase" dataDxfId="21"/>
+    <tableColumn id="1" xr3:uid="{D9CEC179-1576-42C3-96B2-3A2A2DEA940B}" name="Name" dataDxfId="20"/>
+    <tableColumn id="2" xr3:uid="{6D82DB69-9CAD-4C60-B89C-F0CE46353F34}" name="Description" dataDxfId="19"/>
+    <tableColumn id="10" xr3:uid="{868DB6BA-88A9-4C02-A656-6749D2C76F39}" name="Units" dataDxfId="18"/>
+    <tableColumn id="3" xr3:uid="{174820D0-DA16-466D-8D6A-4D5785531BCA}" name="Note" dataDxfId="17"/>
+    <tableColumn id="4" xr3:uid="{296D87C8-38DB-481E-8C8D-103E150C0EB4}" name="Distribution Type" dataDxfId="16"/>
+    <tableColumn id="5" xr3:uid="{0CD24369-4B74-4344-AEAA-FD06FF238D87}" name="Parameter 1" dataDxfId="15"/>
+    <tableColumn id="6" xr3:uid="{910E9AB0-6EC0-4356-8710-E6A61FF20CF2}" name="Parameter 2" dataDxfId="14"/>
+    <tableColumn id="7" xr3:uid="{939AF182-3E65-4378-98FE-E064D3AF07A4}" name="Parameter 3" dataDxfId="13"/>
+    <tableColumn id="8" xr3:uid="{9A746F57-B265-44DF-8219-7FB48AB6F602}" name="Parameter 4" dataDxfId="12"/>
+    <tableColumn id="11" xr3:uid="{0523D788-FC91-41F6-B94D-3F3DD0392A73}" name="Parameter 5" dataDxfId="5"/>
+    <tableColumn id="12" xr3:uid="{9434B482-E8D3-4985-B4FD-CC2284F77D6F}" name="Parameter 6" dataDxfId="4"/>
+    <tableColumn id="13" xr3:uid="{8229455A-1482-48D3-8B8A-980473417456}" name="Parameter 7" dataDxfId="3"/>
+    <tableColumn id="14" xr3:uid="{5EEE91A7-7B23-4AA2-8045-5B5AE86AC6A9}" name="Lower Limit" dataDxfId="2"/>
+    <tableColumn id="15" xr3:uid="{6970DD47-710C-4EDA-8A93-26CA7A78D296}" name="Upper Limit" dataDxfId="1"/>
+    <tableColumn id="16" xr3:uid="{58F19481-1ACB-49FA-8399-D2ECFFFF38CF}" name="Step" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -907,10 +1101,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D279B041-2F92-47A3-9D2D-0AA24225DC27}">
-  <dimension ref="A1:J3"/>
+  <dimension ref="A1:P3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:P1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -927,73 +1121,91 @@
     <col min="10" max="10" width="20.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F1" t="s">
         <v>4</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H1" t="s">
+        <v>24</v>
+      </c>
+      <c r="I1" t="s">
+        <v>25</v>
+      </c>
+      <c r="J1" t="s">
+        <v>26</v>
+      </c>
+      <c r="K1" t="s">
+        <v>27</v>
+      </c>
+      <c r="L1" t="s">
+        <v>28</v>
+      </c>
+      <c r="M1" t="s">
+        <v>29</v>
+      </c>
+      <c r="N1" t="s">
+        <v>30</v>
+      </c>
+      <c r="O1" t="s">
+        <v>31</v>
+      </c>
+      <c r="P1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
         <v>5</v>
       </c>
-      <c r="F1" t="s">
+      <c r="C2" t="s">
         <v>6</v>
       </c>
-      <c r="G1" t="s">
+      <c r="D2" t="s">
         <v>7</v>
       </c>
-      <c r="H1" t="s">
+      <c r="E2" t="s">
         <v>8</v>
       </c>
-      <c r="I1" t="s">
-        <v>9</v>
-      </c>
-      <c r="J1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E2" t="s">
-        <v>14</v>
-      </c>
       <c r="F2" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="G2">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="E3" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="F3" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="G3">
         <v>6</v>
@@ -1009,10 +1221,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64B1CF47-EC9B-4F2B-A8E2-674E900F9A7B}">
-  <dimension ref="A1:J4"/>
+  <dimension ref="A1:P4"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="A2:B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1029,75 +1241,99 @@
     <col min="10" max="10" width="20.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F1" t="s">
         <v>4</v>
       </c>
-      <c r="E1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F1" t="s">
-        <v>6</v>
-      </c>
       <c r="G1" t="s">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="H1" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="I1" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="J1" t="s">
-        <v>10</v>
+        <v>26</v>
+      </c>
+      <c r="K1" t="s">
+        <v>27</v>
+      </c>
+      <c r="L1" t="s">
+        <v>28</v>
+      </c>
+      <c r="M1" t="s">
+        <v>29</v>
+      </c>
+      <c r="N1" t="s">
+        <v>30</v>
+      </c>
+      <c r="O1" t="s">
+        <v>31</v>
+      </c>
+      <c r="P1" t="s">
+        <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="3"/>
       <c r="B2" s="3" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="E2" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="F2" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="G2">
         <v>2</v>
       </c>
+      <c r="K2" s="6"/>
+      <c r="L2" s="6"/>
+      <c r="M2" s="6"/>
+      <c r="N2" s="6"/>
+      <c r="O2" s="6"/>
+      <c r="P2" s="6"/>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="4"/>
       <c r="B3" s="4" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="C3" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="D3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3" t="s">
         <v>21</v>
-      </c>
-      <c r="E3" t="s">
-        <v>22</v>
-      </c>
-      <c r="F3" t="s">
-        <v>27</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -1105,31 +1341,43 @@
       <c r="H3">
         <v>5</v>
       </c>
+      <c r="K3" s="5"/>
+      <c r="L3" s="5"/>
+      <c r="M3" s="5"/>
+      <c r="N3" s="5"/>
+      <c r="O3" s="5"/>
+      <c r="P3" s="5"/>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="4"/>
       <c r="B4" s="4" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="D4" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="E4" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="F4" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="G4">
         <v>7</v>
       </c>
+      <c r="K4" s="7"/>
+      <c r="L4" s="7"/>
+      <c r="M4" s="7"/>
+      <c r="N4" s="7"/>
+      <c r="O4" s="7"/>
+      <c r="P4" s="7"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="A2:B4">
-    <cfRule type="expression" dxfId="11" priority="3">
+    <cfRule type="expression" dxfId="23" priority="3">
       <formula>ISBLANK(#REF!)</formula>
     </cfRule>
   </conditionalFormatting>
